--- a/empty_1sheet_template.xlsx
+++ b/empty_1sheet_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16464" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16464" windowHeight="5808"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -338,10 +338,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>